--- a/documentation/data-dictionary/data-dictionary-fisd-altdata-council-template.xlsx
+++ b/documentation/data-dictionary/data-dictionary-fisd-altdata-council-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haijing/Haijing/ds_project/altdata-council/altdata-council/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haijing/Haijing/ds_project/altdata-council/altdata-council/documentation/data-dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD1FEDD-97D9-5C45-8513-DBD58D3A795E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C78BF6-0D5F-0647-905E-A77E63B501C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,11 +289,44 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipiscing elit. Vestibulum a aliquam augue, non fringilla ligula. Etiam cursus semper sapien eget elementum. Nullam vitae lectus dictum, tincidunt est id, semper nunc. Maecenas suscipit venenatis turpis vitae aliquam. Maecenas ultrices, sapien eu molestie suscipit, justo mi consectetur massa, et egestas velit felis consectetur orci. Proin posuere eros non nunc ultrices luctus.
-Highlights include:
-• Sed euismod suscipit metus in venenatis. Suspendisse sit amet volutpat nunc. Fusce cursus purus ut ornare cursus. Aliquam felis leo, malesuada in venenatis vitae, molestie sed diam
-• ras mollis purus lectus, vel ullamcorper lectus dapibus non. Nullam rutrum mattis felis, iaculis bibendum tellus varius ac 
+    <r>
+      <t xml:space="preserve">After having described their data at a high level following tearsheet's guidance, when asked for sample data, vendors should fill in data dictionary to describe structure of their dataset in more detail.
 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF414141"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Contents include:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF414141"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Description of columns: from business perspective
+• Data type
+• Sample value for each column
+• Data Quality: 
+    ◦ Percentage of missing values
+    ◦ Number of unique values
+• Methodology: 
+    ◦How are values calculated
+    ◦Describe methodology changes if any
+• Time series data: 
+    ◦ Point of time
+    ◦ Date first observation
+    ◦ Date first published
+    ◦ Date methodology changed
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -301,12 +334,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="dd\ mmm\ yyyy"/>
-    <numFmt numFmtId="172" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="dd\ mmm\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +486,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF414141"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -480,7 +520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -538,17 +578,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -575,7 +604,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -611,8 +640,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -634,7 +663,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -656,10 +685,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
@@ -703,13 +728,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -734,276 +767,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="7667625" y="266700"/>
-    <xdr:ext cx="786848" cy="319241"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95CA68F-76E4-004A-8785-962B87DAE698}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7667625" y="266700"/>
-          <a:ext cx="786848" cy="319241"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>115032</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1825486" cy="357477"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangle 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61294A77-E8FB-8D44-808A-9CEC757D131A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6480175" y="1956532"/>
-          <a:ext cx="1825486" cy="357477"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" dirty="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Table of Contents  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" dirty="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
-            </a:rPr>
-            <a:t>à</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>415436</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1825486" cy="357477"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rounded Rectangle 3">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA7C7EB7-FB77-A94E-907A-571C07A6A794}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6480175" y="2447436"/>
-          <a:ext cx="1825486" cy="357477"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="3A578A"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" dirty="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Start  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" dirty="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
-            </a:rPr>
-            <a:t>à</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>90122</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>93051</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1825486" cy="357477"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rounded Rectangle 4">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB0945B-E4A0-7E4C-A0DE-3BE0856DABCF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6465522" y="1934551"/>
-          <a:ext cx="1825486" cy="357477"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6C87B3"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" dirty="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Overview</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37028,16 +36791,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A16BEC2-FBF6-7143-8040-687F911514FA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="263" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="322" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="2" width="65.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="91.5" style="20" customWidth="1"/>
     <col min="3" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
@@ -37085,36 +36848,36 @@
     </row>
     <row r="5" spans="1:7" ht="16">
       <c r="A5" s="21"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="46" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
-      <c r="E5" s="33"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="23"/>
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="21"/>
-      <c r="B6" s="32"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="21"/>
-      <c r="B7" s="36"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="21"/>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="23"/>
@@ -37125,7 +36888,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="21"/>
-      <c r="B9" s="39"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -37134,34 +36897,43 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="21"/>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="26"/>
     </row>
-    <row r="11" spans="1:7" ht="143">
+    <row r="11" spans="1:7" ht="284">
       <c r="A11" s="21"/>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="23"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="26"/>
     </row>
-    <row r="12" spans="1:7" ht="16" thickBot="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7" ht="16" thickBot="1">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -37172,7 +36944,7 @@
     <hyperlink ref="B4" r:id="rId2" display="sh-am-qed@ubs.com" xr:uid="{FEC9FC26-4A6C-5949-A6EE-8C1356416135}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -37231,7 +37003,7 @@
       </c>
       <c r="C4" s="4">
         <f ca="1">TODAY()</f>
-        <v>44003</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -37656,7 +37428,7 @@
       </c>
       <c r="C4" s="4">
         <f ca="1">TODAY()</f>
-        <v>44003</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="5" spans="2:7">
